--- a/public/export/phong địa.xlsx
+++ b/public/export/phong địa.xlsx
@@ -48,10 +48,10 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Khoa học-4A</t>
-  </si>
-  <si>
-    <t>Địa lý-4B</t>
+    <t>Trương Văn Sáu-4A</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thắm-4B</t>
   </si>
   <si>
     <t>Chiều</t>
@@ -443,8 +443,8 @@
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
   </cols>
